--- a/data/tests/cluster_30.xlsx
+++ b/data/tests/cluster_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,20 +463,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rv3824c</t>
+          <t>Rv3515c</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>papA1 Rv3824c</t>
+          <t>fadD19 Rv3515c</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FUNCTION: Required for the biosynthesis of sulfolipid-1 (SL-1), a major mycobacterial cell wall lipid (PubMed:17259623, PubMed:17592143, PubMed:22194604). Catalyzes the acylation of trehalose-2-sulfate-2'-palmitate (SL659) by adding the (hydroxy)phthioceranoyl group at the 3'-position to yield the diacylated intermediate 2-palmitoyl-3-(C43)-phthioceranyl-alpha, alpha'-D-trehalose-2'-sulfate (SL1278) (PubMed:17592143, PubMed:22194604). {ECO:0000269|PubMed:17259623, ECO:0000269|PubMed:17592143, ECO:0000269|PubMed:22194604}.</t>
+          <t>FUNCTION: Catalyzes the activation of medium/long-chain fatty acids as acyl-coenzyme A (acyl-CoA), which are then transferred to the multifunctional polyketide synthase (PKS) type III for further chain extension (PubMed:15042094, PubMed:15984864, PubMed:19182784). Also involved in the degradation of cholesterol via the degradation of the side chains of C-24 branched-chain sterols. Catalyzes the ATP-dependent CoA thioesterification of the sterol 3-oxocholest-4-en-26-oate to yield 3-oxocholest-4-en-26-oyl-CoA. It can also use 3beta-hydroxy-5-cholesten-26-oate (PubMed:24244004). {ECO:0000269|PubMed:15042094, ECO:0000269|PubMed:15984864, ECO:0000269|PubMed:19182784, ECO:0000269|PubMed:24244004}.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -486,20 +486,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rv0058</t>
+          <t>Rv0899</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dnaB Rv0058 MTCY21D4.21</t>
+          <t>arfA ompA Rv0899 MTCY31.27</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FUNCTION: Participates in initiation and elongation during chromosome replication; it exhibits DNA-dependent ATPase activity. {ECO:0000250}.; FUNCTION: The intein is an endonuclease. {ECO:0000305}.</t>
+          <t>FUNCTION: Probably plays a role in ammonia secretion that neutralizes the medium at pH 5.5, although it does not play a direct role in ammonia transport. The OmpA-like domain (196-326) binds M.tuberculosis peptidoglycan. Overexpression in M.bovis or M.smegmatis gives channels with average conductance value of 1,600 +/- 100 pS, but this may not be physiologically relevant. {ECO:0000269|PubMed:12366842, ECO:0000269|PubMed:17573469, ECO:0000269|PubMed:21410778}.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -509,20 +509,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rv1213</t>
+          <t>Rv2590</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>glgC Rv1213 MTCI364.25</t>
+          <t>car fadD9 Rv2590</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in the biosynthesis of ADP-glucose building block required in the biosynthesis of maltose-1-phosphate (M1P) and in the elongation reactions to produce linear alpha-1,4-glucans. Catalyzes the reaction between ATP and alpha-D-glucose 1-phosphate (G1P) to produce pyrophosphate and ADP-Glc. {ECO:0000269|PubMed:18808383, ECO:0000269|PubMed:27513637}.</t>
+          <t>FUNCTION: Catalyzes the ATP- and NADPH-dependent reduction of carboxylic acids to the corresponding aldehydes (By similarity). In vitro, also catalyzes the activation of medium/long-chain fatty acids as acyl-adenylates (acyl-AMP) (PubMed:19182784). {ECO:0000250|UniProtKB:B2HN69, ECO:0000269|PubMed:19182784}.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -532,20 +532,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rv2590</t>
+          <t>Rv3824c</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>car fadD9 Rv2590</t>
+          <t>papA1 Rv3824c</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the ATP- and NADPH-dependent reduction of carboxylic acids to the corresponding aldehydes (By similarity). In vitro, also catalyzes the activation of medium/long-chain fatty acids as acyl-adenylates (acyl-AMP) (PubMed:19182784). {ECO:0000250|UniProtKB:B2HN69, ECO:0000269|PubMed:19182784}.</t>
+          <t>FUNCTION: Required for the biosynthesis of sulfolipid-1 (SL-1), a major mycobacterial cell wall lipid (PubMed:17259623, PubMed:17592143, PubMed:22194604). Catalyzes the acylation of trehalose-2-sulfate-2'-palmitate (SL659) by adding the (hydroxy)phthioceranoyl group at the 3'-position to yield the diacylated intermediate 2-palmitoyl-3-(C43)-phthioceranyl-alpha, alpha'-D-trehalose-2'-sulfate (SL1278) (PubMed:17592143, PubMed:22194604). {ECO:0000269|PubMed:17259623, ECO:0000269|PubMed:17592143, ECO:0000269|PubMed:22194604}.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -555,20 +555,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rv0899</t>
+          <t>Rv1213</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>arfA ompA Rv0899 MTCY31.27</t>
+          <t>glgC Rv1213 MTCI364.25</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FUNCTION: Probably plays a role in ammonia secretion that neutralizes the medium at pH 5.5, although it does not play a direct role in ammonia transport. The OmpA-like domain (196-326) binds M.tuberculosis peptidoglycan. Overexpression in M.bovis or M.smegmatis gives channels with average conductance value of 1,600 +/- 100 pS, but this may not be physiologically relevant. {ECO:0000269|PubMed:12366842, ECO:0000269|PubMed:17573469, ECO:0000269|PubMed:21410778}.</t>
+          <t>FUNCTION: Involved in the biosynthesis of ADP-glucose building block required in the biosynthesis of maltose-1-phosphate (M1P) and in the elongation reactions to produce linear alpha-1,4-glucans. Catalyzes the reaction between ATP and alpha-D-glucose 1-phosphate (G1P) to produce pyrophosphate and ADP-Glc. {ECO:0000269|PubMed:18808383, ECO:0000269|PubMed:27513637}.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -578,23 +578,1241 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rv3515c</t>
+          <t>Rv0058</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fadD19 Rv3515c</t>
+          <t>dnaB Rv0058 MTCY21D4.21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the activation of medium/long-chain fatty acids as acyl-coenzyme A (acyl-CoA), which are then transferred to the multifunctional polyketide synthase (PKS) type III for further chain extension (PubMed:15042094, PubMed:15984864, PubMed:19182784). Also involved in the degradation of cholesterol via the degradation of the side chains of C-24 branched-chain sterols. Catalyzes the ATP-dependent CoA thioesterification of the sterol 3-oxocholest-4-en-26-oate to yield 3-oxocholest-4-en-26-oyl-CoA. It can also use 3beta-hydroxy-5-cholesten-26-oate (PubMed:24244004). {ECO:0000269|PubMed:15042094, ECO:0000269|PubMed:15984864, ECO:0000269|PubMed:19182784, ECO:0000269|PubMed:24244004}.</t>
+          <t>FUNCTION: Participates in initiation and elongation during chromosome replication; it exhibits DNA-dependent ATPase activity. {ECO:0000250}.; FUNCTION: The intein is an endonuclease. {ECO:0000305}.</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rv1379</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pyrR Rv1379 MTCY02B12.13</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FUNCTION: Regulates the transcription of the pyrimidine nucleotide (pyr) operon in response to exogenous pyrimidines. {ECO:0000255|HAMAP-Rule:MF_01219}.; FUNCTION: Also displays a weak uracil phosphoribosyltransferase activity which is not physiologically significant. {ECO:0000255|HAMAP-Rule:MF_01219}.</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv0676c</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>mmpL5 Rv0676c MTV040.04c</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNCTION: Part of an export system, which is required for biosynthesis and secretion of siderophores. {ECO:0000269|PubMed:23431276}.; FUNCTION: Overexpression of the system confers non-target based resistance to azoles, clofazimine and bedaquiline, via an efflux mechanism. {ECO:0000269|PubMed:18851927, ECO:0000269|PubMed:24590481, ECO:0000269|PubMed:25010492}.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv3617</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ephA Rv3617 LH57_19705</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FUNCTION: Could be involved in detoxification of extraneous host-cell epoxides. Catalyzes the hydrolysis of epoxide-containing substrates. {ECO:0000305|PubMed:16511284}.</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv0447c</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ufaA1 Rv0447c RVBD_0447c LH57_02385 P425_00460</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FUNCTION: Involved in the biosynthesis of the tuberculostearic acid (10-methylstearic-acid or TSA), a constituent lipid of the mycobacterial cell wall. Catalyzes the transfer of the methyl group from S-adenosyl-L-methionine (SAM) to the double bond of oleic acid in phosphatidylethanolamine or phosphatidylcholine to produce TSA. {ECO:0000269|PubMed:24033595}.</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rv2634c</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PE_PGRS46 Rv2634c MTCY441.04c</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rv0927c</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rv0927c</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rv1533</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rv1533</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rv0724</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sppA Rv0724</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rv3787c</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rv3787c</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FUNCTION: Exhibits S-adenosyl-L-methionine-dependent methyltransferase activity. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rv0726c</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rv0726c</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FUNCTION: Exhibits S-adenosyl-L-methionine-dependent methyltransferase activity. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rv0405</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>pks6 Rv0405</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rv3394c</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rv3394c</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FUNCTION: Poorly processive, error-prone DNA polymerase involved in untargeted mutagenesis. Copies undamaged DNA at stalled replication forks, which arise in vivo from mismatched or misaligned primer ends. These misaligned primers can be extended by PolIV. Exhibits no 3'-5' exonuclease (proofreading) activity. May be involved in translesional synthesis, in conjunction with the beta clamp from PolIII. {ECO:0000256|ARBA:ARBA00003745}.</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rv3252c</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>alkB Rv3252c</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rv3202c</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Rv3202c</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rv2488c</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Rv2488c</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rv3238c</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mddA Rv3238c</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the methylation of methanethiol (MeSH) to yield dimethylsulphide (DMS). {ECO:0000269|PubMed:25807229}.</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rv0093c</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Rv0093c MTCY251.12c</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rv0120c</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Rv0120c MTCI418B.02c</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rv2339</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>mmpL9 Rv2339 MTCY98.08</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rv0648</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rv0648</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rv2142c</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>parE2 Rv2142c</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FUNCTION: Toxic component of a type II toxin-antitoxin (TA) system. Upon expression in E.coli inhibits cell growth and colony formation. Its toxic effect is neutralized by coexpression with cognate antitoxin ParD2. {ECO:0000269|PubMed:19016878}.</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rv0083</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rv0083 MTCY251.01 MTV030.27</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rv1008</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>tatD Rv1008</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rv1793</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>esxN Rv1793 MTV049.15</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rv0681</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rv0681</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rv1923</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>lipD Rv1923</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rv0253</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>nirD Rv0253</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rv0711</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>atsA Rv0711</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rv0837c</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rv0837c</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rv0133</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Rv0133</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rv3213c</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rv3213c</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rv3350c</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PPE56 Rv3350c</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rv1754c</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Rv1754c</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rv1790</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PPE27 Rv1790</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Rv3519</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rv3519</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Rv2387</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Rv2387</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rv3690</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rv3690</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rv3431c</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Rv3431c</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>FUNCTION: Required for the transposition of the insertion element. {ECO:0000256|ARBA:ARBA00002190, ECO:0000256|RuleBase:RU365089}.</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rv0134</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ephF Rv0134</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rv3096</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Rv3096</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rv3796</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Rv3796</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rv1978</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rv1978</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rv3729</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Rv3729</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rv2265</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Rv2265 MTCY339.45c</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rv2076c</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Rv2076c MTCY49.15c</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rv1787</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PPE25 Rv1787</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rv1802</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PPE30 Rv1802 MTV049.24</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rv1995</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Rv1995 MTCY39.24c</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Rv1363c</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rv1363c MTCY02B10.27c</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Rv2075c</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rv2075c MTCY49.14c</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Rv3513c</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>fadD18 Rv3513c</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Rv2414c</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Rv2414c</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Rv3688c</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Rv3688c</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Rv0591</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>mce2C Rv0591</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Rv3296</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>lhr Rv3296</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Rv0724</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Rv0724A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Rv0532</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PE_PGRS6 Rv0532</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Rv0144</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Rv0144</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Rv0461</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Rv0461</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Rv0265c</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Rv0265c</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Rv2469c</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rv2469c</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Rv3138</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pflA Rv3138</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
         <v>30</v>
       </c>
     </row>
